--- a/grupos/5AEV - Estadisticos 20211.xlsx
+++ b/grupos/5AEV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="114">
   <si>
     <t>Materia</t>
   </si>
@@ -155,16 +155,16 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Vargas Olvera Francisco Eduardo</t>
+  </si>
+  <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
     <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
-    <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
     <t>Bautista Sarao Eutiquio</t>
@@ -867,7 +867,7 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -930,7 +930,7 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y4">
         <v>10</v>
@@ -945,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -962,7 +962,7 @@
         <v>-1</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -998,7 +998,7 @@
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1009,7 +1009,7 @@
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -1072,7 +1072,7 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y6">
         <v>7</v>
@@ -1098,7 +1098,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1113,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1161,7 +1161,7 @@
         <v>9</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -1176,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1187,7 +1187,7 @@
         <v>-1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1202,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1250,7 +1250,7 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1365,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1428,13 +1428,13 @@
         <v>6</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y10">
         <v>9</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA10">
         <v>9</v>
@@ -1443,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1454,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -1517,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y11">
         <v>9</v>
@@ -1543,7 +1543,7 @@
         <v>-1</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1558,7 +1558,7 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1606,7 +1606,7 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y12">
         <v>8</v>
@@ -1621,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1632,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1647,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1695,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1710,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1721,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1736,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1784,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y14">
         <v>6</v>
@@ -1799,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1810,7 +1810,7 @@
         <v>-1</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1873,7 +1873,7 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y15">
         <v>6</v>
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1914,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1962,7 +1962,7 @@
         <v>7</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -1977,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1988,13 +1988,13 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2003,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -2051,13 +2051,13 @@
         <v>9</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y17">
         <v>10</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AA17">
         <v>10</v>
@@ -2066,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2166,7 +2166,7 @@
         <v>-1</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -2181,7 +2181,7 @@
         <v>9</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -2229,7 +2229,7 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y19">
         <v>9</v>
@@ -2244,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2255,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -2270,7 +2270,7 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -2318,13 +2318,13 @@
         <v>8</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y20">
         <v>8</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AA20">
         <v>6</v>
@@ -2333,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2344,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -2359,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -2407,7 +2407,7 @@
         <v>6</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y21">
         <v>10</v>
@@ -2422,7 +2422,7 @@
         <v>9</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2511,7 +2511,7 @@
         <v>7</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2522,7 +2522,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -2537,7 +2537,7 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2585,7 +2585,7 @@
         <v>10</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y23">
         <v>10</v>
@@ -2600,7 +2600,7 @@
         <v>10</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2789,7 +2789,7 @@
         <v>-1</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -2804,7 +2804,7 @@
         <v>7</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2852,7 +2852,7 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>8</v>
@@ -2867,7 +2867,7 @@
         <v>7</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2926,60 +2926,66 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>8.699999999999999</v>
+      </c>
       <c r="I2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>86.95999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>7.7</v>
+      </c>
       <c r="I3">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2993,27 +2999,30 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
       <c r="I4">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -3022,25 +3031,25 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>77.27</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3213,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3233,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3253,7 +3262,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3333,7 +3342,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3433,7 +3442,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3453,7 +3462,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3473,7 +3482,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3573,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3593,7 +3602,7 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3613,7 +3622,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3713,7 +3722,7 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3733,7 +3742,7 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3753,7 +3762,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3853,7 +3862,7 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3873,7 +3882,7 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3893,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3993,7 +4002,7 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4013,7 +4022,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4033,7 +4042,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4133,7 +4142,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4153,7 +4162,7 @@
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4173,7 +4182,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4273,7 +4282,7 @@
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4293,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4313,7 +4322,7 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4413,7 +4422,7 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4433,7 +4442,7 @@
         <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4453,7 +4462,7 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4553,7 +4562,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4573,7 +4582,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4593,7 +4602,7 @@
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4693,7 +4702,7 @@
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4713,7 +4722,7 @@
         <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4733,7 +4742,7 @@
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4833,7 +4842,7 @@
         <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4853,7 +4862,7 @@
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4873,7 +4882,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4973,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4993,7 +5002,7 @@
         <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5013,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5113,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5133,7 +5142,7 @@
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5153,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5253,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5273,7 +5282,7 @@
         <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5293,7 +5302,7 @@
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5393,7 +5402,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5413,7 +5422,7 @@
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5433,7 +5442,7 @@
         <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5533,7 +5542,7 @@
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5553,7 +5562,7 @@
         <v>6</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5573,7 +5582,7 @@
         <v>8</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5673,7 +5682,7 @@
         <v>5</v>
       </c>
       <c r="F126" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5693,7 +5702,7 @@
         <v>6</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5713,7 +5722,7 @@
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5813,7 +5822,7 @@
         <v>5</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5833,7 +5842,7 @@
         <v>6</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5853,7 +5862,7 @@
         <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5953,7 +5962,7 @@
         <v>5</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5973,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5993,7 +6002,7 @@
         <v>8</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6093,7 +6102,7 @@
         <v>5</v>
       </c>
       <c r="F147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6113,7 +6122,7 @@
         <v>6</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6133,7 +6142,7 @@
         <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6233,7 +6242,7 @@
         <v>5</v>
       </c>
       <c r="F154" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6253,7 +6262,7 @@
         <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6273,7 +6282,7 @@
         <v>8</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6768,7 +6777,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6801,6 +6810,420 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920042</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920042</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920049</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920049</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920055</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920055</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920056</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920056</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920068</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920068</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920081</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920081</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920046</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920057</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920059</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920074</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920075</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/5AEV - Estadisticos 20211.xlsx
+++ b/grupos/5AEV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="114">
   <si>
     <t>Materia</t>
   </si>
@@ -194,75 +194,132 @@
     <t>CHAVEZ</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>VALIENTE</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>NOGALES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>KARLA IRAN</t>
+  </si>
+  <si>
+    <t>CARLOS ADRIAN</t>
+  </si>
+  <si>
+    <t>EUSEBIO</t>
+  </si>
+  <si>
+    <t>LUIS ARIEL</t>
+  </si>
+  <si>
+    <t>GERARDO RAUL</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ALEXIS ARMANDO</t>
+  </si>
+  <si>
+    <t>SALOMON</t>
+  </si>
+  <si>
+    <t>ALEXIS YAIR</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>JOSUE YAMIN</t>
+  </si>
+  <si>
+    <t>MARTI NEFTALI</t>
+  </si>
+  <si>
+    <t>AGUSTIN</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
     <t>COSCAHUA</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>ESPINOSA</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>LARA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MEDRANO</t>
   </si>
   <si>
     <t>REYES</t>
   </si>
   <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>NUÑEZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
     <t>TZOYONTLE</t>
   </si>
   <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
     <t>TZOPITL</t>
   </si>
   <si>
-    <t>VALIENTE</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
@@ -272,94 +329,37 @@
     <t>VILLAR</t>
   </si>
   <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
     <t>LOZANO</t>
   </si>
   <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
     <t>CORTES</t>
   </si>
   <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>NOGALES</t>
-  </si>
-  <si>
-    <t>KARLA IRAN</t>
-  </si>
-  <si>
-    <t>CARLOS ADRIAN</t>
-  </si>
-  <si>
-    <t>EUSEBIO</t>
-  </si>
-  <si>
     <t>ALMA LIZETH</t>
   </si>
   <si>
-    <t>LUIS ARIEL</t>
-  </si>
-  <si>
     <t>YASIEL</t>
   </si>
   <si>
-    <t>GERARDO RAUL</t>
-  </si>
-  <si>
     <t>JONATHAN</t>
   </si>
   <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
     <t>ISAAC ALESSANDRO</t>
   </si>
   <si>
-    <t>ALEXIS ARMANDO</t>
-  </si>
-  <si>
-    <t>AGUSTIN</t>
-  </si>
-  <si>
-    <t>SALOMON</t>
-  </si>
-  <si>
     <t>VICTOR SAUL</t>
   </si>
   <si>
-    <t>ALEXIS YAIR</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
     <t>JOSE DANIEL</t>
   </si>
   <si>
     <t>IVAN</t>
   </si>
   <si>
-    <t>JOSUE YAMIN</t>
-  </si>
-  <si>
     <t>ARTURO</t>
-  </si>
-  <si>
-    <t>MARTI NEFTALI</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -1078,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA6">
         <v>8</v>
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1167,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA7">
         <v>10</v>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1256,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA8">
         <v>10</v>
@@ -1549,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1612,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA12">
         <v>6</v>
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA13">
         <v>9</v>
@@ -1727,7 +1727,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -1790,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA14">
         <v>8</v>
@@ -1816,7 +1816,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -1879,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA15">
         <v>8</v>
@@ -1905,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1968,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA16">
         <v>10</v>
@@ -2172,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -2235,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA19">
         <v>6</v>
@@ -2350,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2413,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA21">
         <v>10</v>
@@ -2528,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -2591,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA23">
         <v>10</v>
@@ -2706,7 +2706,7 @@
         <v>-1</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>-1</v>
@@ -2769,7 +2769,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2795,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -2858,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA26">
         <v>8</v>
@@ -2935,25 +2935,25 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>13.04</v>
+        <v>34.78</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.78</v>
       </c>
       <c r="H2">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>86.95999999999999</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3155,7 +3155,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3193,16 +3193,16 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3213,73 +3213,73 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920042</v>
+        <v>18330051920009</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920042</v>
+        <v>18330051920009</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920042</v>
+        <v>18330051920009</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -3287,36 +3287,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920042</v>
+        <v>19330051920045</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920042</v>
+        <v>19330051920045</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -3327,396 +3327,396 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920009</v>
+        <v>19330051920049</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920009</v>
+        <v>19330051920055</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920009</v>
+        <v>19330051920055</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920009</v>
+        <v>19330051920056</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920045</v>
+        <v>19330051920058</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920045</v>
+        <v>19330051920058</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920045</v>
+        <v>19330051920050</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920045</v>
+        <v>19330051920050</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920045</v>
+        <v>19330051920050</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920045</v>
+        <v>19330051920050</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920045</v>
+        <v>19330051920050</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920046</v>
+        <v>19330051920050</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920046</v>
+        <v>19330051920050</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920046</v>
+        <v>19330051920067</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920046</v>
+        <v>19330051920067</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920046</v>
+        <v>19330051920067</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920046</v>
+        <v>19330051920067</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920046</v>
+        <v>19330051920067</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920049</v>
+        <v>19330051920067</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920049</v>
+        <v>19330051920068</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -3727,16 +3727,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920049</v>
+        <v>18330051920078</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -3747,16 +3747,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920049</v>
+        <v>18330051920078</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -3767,19 +3767,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920049</v>
+        <v>18330051920078</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
@@ -3787,2562 +3787,262 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920049</v>
+        <v>19330051920418</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920049</v>
+        <v>19330051920418</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920053</v>
+        <v>19330051920418</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920053</v>
+        <v>19330051920418</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920053</v>
+        <v>19330051920418</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920053</v>
+        <v>19330051920418</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920053</v>
+        <v>19330051920418</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920053</v>
+        <v>19330051920076</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920053</v>
+        <v>19330051920076</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920055</v>
+        <v>19330051920076</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920055</v>
+        <v>19330051920076</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920055</v>
+        <v>19330051920076</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920055</v>
+        <v>19330051920081</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>19330051920055</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19330051920055</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>19330051920055</v>
-      </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920057</v>
-      </c>
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920057</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920057</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920057</v>
-      </c>
-      <c r="B51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920057</v>
-      </c>
-      <c r="B52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920057</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920057</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920056</v>
-      </c>
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920056</v>
-      </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920056</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920056</v>
-      </c>
-      <c r="B58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920056</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920056</v>
-      </c>
-      <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920056</v>
-      </c>
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920022</v>
-      </c>
-      <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920022</v>
-      </c>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920022</v>
-      </c>
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920022</v>
-      </c>
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920022</v>
-      </c>
-      <c r="B66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920022</v>
-      </c>
-      <c r="B67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920022</v>
-      </c>
-      <c r="B68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920058</v>
-      </c>
-      <c r="B69" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920058</v>
-      </c>
-      <c r="B70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920058</v>
-      </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920058</v>
-      </c>
-      <c r="B72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920058</v>
-      </c>
-      <c r="B73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920058</v>
-      </c>
-      <c r="B74" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920058</v>
-      </c>
-      <c r="B75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920059</v>
-      </c>
-      <c r="B76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920059</v>
-      </c>
-      <c r="B77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920059</v>
-      </c>
-      <c r="B78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920059</v>
-      </c>
-      <c r="B79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920059</v>
-      </c>
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" t="s">
-        <v>103</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920059</v>
-      </c>
-      <c r="B81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920059</v>
-      </c>
-      <c r="B82" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920050</v>
-      </c>
-      <c r="B83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920050</v>
-      </c>
-      <c r="B84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D84" t="s">
-        <v>104</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920050</v>
-      </c>
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920050</v>
-      </c>
-      <c r="B86" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" t="s">
-        <v>104</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920050</v>
-      </c>
-      <c r="B87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920050</v>
-      </c>
-      <c r="B88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" t="s">
-        <v>67</v>
-      </c>
-      <c r="D88" t="s">
-        <v>104</v>
-      </c>
-      <c r="E88" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920050</v>
-      </c>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" t="s">
-        <v>67</v>
-      </c>
-      <c r="D89" t="s">
-        <v>104</v>
-      </c>
-      <c r="E89" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920064</v>
-      </c>
-      <c r="B90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" t="s">
-        <v>105</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920064</v>
-      </c>
-      <c r="B91" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920064</v>
-      </c>
-      <c r="B92" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" t="s">
-        <v>105</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920064</v>
-      </c>
-      <c r="B93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" t="s">
-        <v>105</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920064</v>
-      </c>
-      <c r="B94" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" t="s">
-        <v>105</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920064</v>
-      </c>
-      <c r="B95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" t="s">
-        <v>105</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920064</v>
-      </c>
-      <c r="B96" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" t="s">
-        <v>105</v>
-      </c>
-      <c r="E96" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920067</v>
-      </c>
-      <c r="B97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" t="s">
-        <v>84</v>
-      </c>
-      <c r="D97" t="s">
-        <v>106</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920067</v>
-      </c>
-      <c r="B98" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" t="s">
-        <v>84</v>
-      </c>
-      <c r="D98" t="s">
-        <v>106</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920067</v>
-      </c>
-      <c r="B99" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" t="s">
-        <v>84</v>
-      </c>
-      <c r="D99" t="s">
-        <v>106</v>
-      </c>
-      <c r="E99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920067</v>
-      </c>
-      <c r="B100" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" t="s">
-        <v>106</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920067</v>
-      </c>
-      <c r="B101" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" t="s">
-        <v>106</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920067</v>
-      </c>
-      <c r="B102" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" t="s">
-        <v>106</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920067</v>
-      </c>
-      <c r="B103" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" t="s">
-        <v>106</v>
-      </c>
-      <c r="E103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920068</v>
-      </c>
-      <c r="B104" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" t="s">
-        <v>85</v>
-      </c>
-      <c r="D104" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920068</v>
-      </c>
-      <c r="B105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" t="s">
-        <v>85</v>
-      </c>
-      <c r="D105" t="s">
-        <v>107</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920068</v>
-      </c>
-      <c r="B106" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" t="s">
-        <v>85</v>
-      </c>
-      <c r="D106" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920068</v>
-      </c>
-      <c r="B107" t="s">
-        <v>67</v>
-      </c>
-      <c r="C107" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920068</v>
-      </c>
-      <c r="B108" t="s">
-        <v>67</v>
-      </c>
-      <c r="C108" t="s">
-        <v>85</v>
-      </c>
-      <c r="D108" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920068</v>
-      </c>
-      <c r="B109" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" t="s">
-        <v>85</v>
-      </c>
-      <c r="D109" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920068</v>
-      </c>
-      <c r="B110" t="s">
-        <v>67</v>
-      </c>
-      <c r="C110" t="s">
-        <v>85</v>
-      </c>
-      <c r="D110" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920069</v>
-      </c>
-      <c r="B111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C111" t="s">
-        <v>86</v>
-      </c>
-      <c r="D111" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920069</v>
-      </c>
-      <c r="B112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" t="s">
-        <v>86</v>
-      </c>
-      <c r="D112" t="s">
-        <v>108</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920069</v>
-      </c>
-      <c r="B113" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" t="s">
-        <v>86</v>
-      </c>
-      <c r="D113" t="s">
-        <v>108</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920069</v>
-      </c>
-      <c r="B114" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" t="s">
-        <v>86</v>
-      </c>
-      <c r="D114" t="s">
-        <v>108</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920069</v>
-      </c>
-      <c r="B115" t="s">
-        <v>68</v>
-      </c>
-      <c r="C115" t="s">
-        <v>86</v>
-      </c>
-      <c r="D115" t="s">
-        <v>108</v>
-      </c>
-      <c r="E115" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920069</v>
-      </c>
-      <c r="B116" t="s">
-        <v>68</v>
-      </c>
-      <c r="C116" t="s">
-        <v>86</v>
-      </c>
-      <c r="D116" t="s">
-        <v>108</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920069</v>
-      </c>
-      <c r="B117" t="s">
-        <v>68</v>
-      </c>
-      <c r="C117" t="s">
-        <v>86</v>
-      </c>
-      <c r="D117" t="s">
-        <v>108</v>
-      </c>
-      <c r="E117" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920074</v>
-      </c>
-      <c r="B118" t="s">
-        <v>69</v>
-      </c>
-      <c r="C118" t="s">
-        <v>87</v>
-      </c>
-      <c r="D118" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920074</v>
-      </c>
-      <c r="B119" t="s">
-        <v>69</v>
-      </c>
-      <c r="C119" t="s">
-        <v>87</v>
-      </c>
-      <c r="D119" t="s">
-        <v>109</v>
-      </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920074</v>
-      </c>
-      <c r="B120" t="s">
-        <v>69</v>
-      </c>
-      <c r="C120" t="s">
-        <v>87</v>
-      </c>
-      <c r="D120" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920074</v>
-      </c>
-      <c r="B121" t="s">
-        <v>69</v>
-      </c>
-      <c r="C121" t="s">
-        <v>87</v>
-      </c>
-      <c r="D121" t="s">
-        <v>109</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920074</v>
-      </c>
-      <c r="B122" t="s">
-        <v>69</v>
-      </c>
-      <c r="C122" t="s">
-        <v>87</v>
-      </c>
-      <c r="D122" t="s">
-        <v>109</v>
-      </c>
-      <c r="E122" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920074</v>
-      </c>
-      <c r="B123" t="s">
-        <v>69</v>
-      </c>
-      <c r="C123" t="s">
-        <v>87</v>
-      </c>
-      <c r="D123" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920074</v>
-      </c>
-      <c r="B124" t="s">
-        <v>69</v>
-      </c>
-      <c r="C124" t="s">
-        <v>87</v>
-      </c>
-      <c r="D124" t="s">
-        <v>109</v>
-      </c>
-      <c r="E124" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>18330051920078</v>
-      </c>
-      <c r="B125" t="s">
-        <v>70</v>
-      </c>
-      <c r="C125" t="s">
-        <v>88</v>
-      </c>
-      <c r="D125" t="s">
-        <v>110</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>18330051920078</v>
-      </c>
-      <c r="B126" t="s">
-        <v>70</v>
-      </c>
-      <c r="C126" t="s">
-        <v>88</v>
-      </c>
-      <c r="D126" t="s">
-        <v>110</v>
-      </c>
-      <c r="E126" t="s">
-        <v>5</v>
-      </c>
-      <c r="F126" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>18330051920078</v>
-      </c>
-      <c r="B127" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" t="s">
-        <v>88</v>
-      </c>
-      <c r="D127" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>18330051920078</v>
-      </c>
-      <c r="B128" t="s">
-        <v>70</v>
-      </c>
-      <c r="C128" t="s">
-        <v>88</v>
-      </c>
-      <c r="D128" t="s">
-        <v>110</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>18330051920078</v>
-      </c>
-      <c r="B129" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" t="s">
-        <v>88</v>
-      </c>
-      <c r="D129" t="s">
-        <v>110</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>18330051920078</v>
-      </c>
-      <c r="B130" t="s">
-        <v>70</v>
-      </c>
-      <c r="C130" t="s">
-        <v>88</v>
-      </c>
-      <c r="D130" t="s">
-        <v>110</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>18330051920078</v>
-      </c>
-      <c r="B131" t="s">
-        <v>70</v>
-      </c>
-      <c r="C131" t="s">
-        <v>88</v>
-      </c>
-      <c r="D131" t="s">
-        <v>110</v>
-      </c>
-      <c r="E131" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920075</v>
-      </c>
-      <c r="B132" t="s">
-        <v>71</v>
-      </c>
-      <c r="C132" t="s">
-        <v>89</v>
-      </c>
-      <c r="D132" t="s">
-        <v>111</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920075</v>
-      </c>
-      <c r="B133" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" t="s">
-        <v>89</v>
-      </c>
-      <c r="D133" t="s">
-        <v>111</v>
-      </c>
-      <c r="E133" t="s">
-        <v>5</v>
-      </c>
-      <c r="F133" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920075</v>
-      </c>
-      <c r="B134" t="s">
-        <v>71</v>
-      </c>
-      <c r="C134" t="s">
-        <v>89</v>
-      </c>
-      <c r="D134" t="s">
-        <v>111</v>
-      </c>
-      <c r="E134" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920075</v>
-      </c>
-      <c r="B135" t="s">
-        <v>71</v>
-      </c>
-      <c r="C135" t="s">
-        <v>89</v>
-      </c>
-      <c r="D135" t="s">
-        <v>111</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920075</v>
-      </c>
-      <c r="B136" t="s">
-        <v>71</v>
-      </c>
-      <c r="C136" t="s">
-        <v>89</v>
-      </c>
-      <c r="D136" t="s">
-        <v>111</v>
-      </c>
-      <c r="E136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920075</v>
-      </c>
-      <c r="B137" t="s">
-        <v>71</v>
-      </c>
-      <c r="C137" t="s">
-        <v>89</v>
-      </c>
-      <c r="D137" t="s">
-        <v>111</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920075</v>
-      </c>
-      <c r="B138" t="s">
-        <v>71</v>
-      </c>
-      <c r="C138" t="s">
-        <v>89</v>
-      </c>
-      <c r="D138" t="s">
-        <v>111</v>
-      </c>
-      <c r="E138" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920418</v>
-      </c>
-      <c r="B139" t="s">
-        <v>72</v>
-      </c>
-      <c r="C139" t="s">
-        <v>90</v>
-      </c>
-      <c r="D139" t="s">
-        <v>112</v>
-      </c>
-      <c r="E139" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920418</v>
-      </c>
-      <c r="B140" t="s">
-        <v>72</v>
-      </c>
-      <c r="C140" t="s">
-        <v>90</v>
-      </c>
-      <c r="D140" t="s">
-        <v>112</v>
-      </c>
-      <c r="E140" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920418</v>
-      </c>
-      <c r="B141" t="s">
-        <v>72</v>
-      </c>
-      <c r="C141" t="s">
-        <v>90</v>
-      </c>
-      <c r="D141" t="s">
-        <v>112</v>
-      </c>
-      <c r="E141" t="s">
-        <v>6</v>
-      </c>
-      <c r="F141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920418</v>
-      </c>
-      <c r="B142" t="s">
-        <v>72</v>
-      </c>
-      <c r="C142" t="s">
-        <v>90</v>
-      </c>
-      <c r="D142" t="s">
-        <v>112</v>
-      </c>
-      <c r="E142" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920418</v>
-      </c>
-      <c r="B143" t="s">
-        <v>72</v>
-      </c>
-      <c r="C143" t="s">
-        <v>90</v>
-      </c>
-      <c r="D143" t="s">
-        <v>112</v>
-      </c>
-      <c r="E143" t="s">
-        <v>7</v>
-      </c>
-      <c r="F143" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920418</v>
-      </c>
-      <c r="B144" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144" t="s">
-        <v>90</v>
-      </c>
-      <c r="D144" t="s">
-        <v>112</v>
-      </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920418</v>
-      </c>
-      <c r="B145" t="s">
-        <v>72</v>
-      </c>
-      <c r="C145" t="s">
-        <v>90</v>
-      </c>
-      <c r="D145" t="s">
-        <v>112</v>
-      </c>
-      <c r="E145" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920076</v>
-      </c>
-      <c r="B146" t="s">
-        <v>73</v>
-      </c>
-      <c r="C146" t="s">
-        <v>91</v>
-      </c>
-      <c r="D146" t="s">
-        <v>103</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920076</v>
-      </c>
-      <c r="B147" t="s">
-        <v>73</v>
-      </c>
-      <c r="C147" t="s">
-        <v>91</v>
-      </c>
-      <c r="D147" t="s">
-        <v>103</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920076</v>
-      </c>
-      <c r="B148" t="s">
-        <v>73</v>
-      </c>
-      <c r="C148" t="s">
-        <v>91</v>
-      </c>
-      <c r="D148" t="s">
-        <v>103</v>
-      </c>
-      <c r="E148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F148" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920076</v>
-      </c>
-      <c r="B149" t="s">
-        <v>73</v>
-      </c>
-      <c r="C149" t="s">
-        <v>91</v>
-      </c>
-      <c r="D149" t="s">
-        <v>103</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920076</v>
-      </c>
-      <c r="B150" t="s">
-        <v>73</v>
-      </c>
-      <c r="C150" t="s">
-        <v>91</v>
-      </c>
-      <c r="D150" t="s">
-        <v>103</v>
-      </c>
-      <c r="E150" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920076</v>
-      </c>
-      <c r="B151" t="s">
-        <v>73</v>
-      </c>
-      <c r="C151" t="s">
-        <v>91</v>
-      </c>
-      <c r="D151" t="s">
-        <v>103</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920076</v>
-      </c>
-      <c r="B152" t="s">
-        <v>73</v>
-      </c>
-      <c r="C152" t="s">
-        <v>91</v>
-      </c>
-      <c r="D152" t="s">
-        <v>103</v>
-      </c>
-      <c r="E152" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920081</v>
-      </c>
-      <c r="B153" t="s">
-        <v>74</v>
-      </c>
-      <c r="C153" t="s">
-        <v>71</v>
-      </c>
-      <c r="D153" t="s">
-        <v>113</v>
-      </c>
-      <c r="E153" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920081</v>
-      </c>
-      <c r="B154" t="s">
-        <v>74</v>
-      </c>
-      <c r="C154" t="s">
-        <v>71</v>
-      </c>
-      <c r="D154" t="s">
-        <v>113</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920081</v>
-      </c>
-      <c r="B155" t="s">
-        <v>74</v>
-      </c>
-      <c r="C155" t="s">
-        <v>71</v>
-      </c>
-      <c r="D155" t="s">
-        <v>113</v>
-      </c>
-      <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920081</v>
-      </c>
-      <c r="B156" t="s">
-        <v>74</v>
-      </c>
-      <c r="C156" t="s">
-        <v>71</v>
-      </c>
-      <c r="D156" t="s">
-        <v>113</v>
-      </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920081</v>
-      </c>
-      <c r="B157" t="s">
-        <v>74</v>
-      </c>
-      <c r="C157" t="s">
-        <v>71</v>
-      </c>
-      <c r="D157" t="s">
-        <v>113</v>
-      </c>
-      <c r="E157" t="s">
-        <v>7</v>
-      </c>
-      <c r="F157" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920081</v>
-      </c>
-      <c r="B158" t="s">
-        <v>74</v>
-      </c>
-      <c r="C158" t="s">
-        <v>71</v>
-      </c>
-      <c r="D158" t="s">
-        <v>113</v>
-      </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920081</v>
-      </c>
-      <c r="B159" t="s">
-        <v>74</v>
-      </c>
-      <c r="C159" t="s">
-        <v>71</v>
-      </c>
-      <c r="D159" t="s">
-        <v>113</v>
-      </c>
-      <c r="E159" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6381,16 +4081,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920042</v>
+        <v>19330051920050</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -6398,16 +4098,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920045</v>
+        <v>19330051920418</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -6415,121 +4115,121 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920046</v>
+        <v>19330051920067</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920049</v>
+        <v>19330051920076</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920053</v>
+        <v>18330051920009</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
       <c r="E6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920055</v>
+        <v>18330051920078</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920057</v>
+        <v>19330051920042</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920056</v>
+        <v>19330051920045</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920022</v>
+        <v>19330051920055</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
       <c r="E10">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6537,237 +4237,237 @@
         <v>19330051920058</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920059</v>
+        <v>19330051920049</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920050</v>
+        <v>19330051920056</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920064</v>
+        <v>19330051920068</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920067</v>
+        <v>19330051920081</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920068</v>
+        <v>19330051920046</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920069</v>
+        <v>19330051920053</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920074</v>
+        <v>19330051920057</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920078</v>
+        <v>18330051920022</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920075</v>
+        <v>19330051920059</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920418</v>
+        <v>19330051920064</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920076</v>
+        <v>19330051920069</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920081</v>
+        <v>19330051920074</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920009</v>
+        <v>19330051920075</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6777,7 +4477,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6818,10 +4518,10 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -6841,10 +4541,10 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -6858,22 +4558,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920049</v>
+        <v>19330051920055</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -6881,22 +4581,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920049</v>
+        <v>19330051920055</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -6904,22 +4604,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920055</v>
+        <v>19330051920056</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -6927,39 +4627,39 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920055</v>
+        <v>19330051920056</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920056</v>
+        <v>19330051920081</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -6973,16 +4673,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920056</v>
+        <v>19330051920081</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -6991,50 +4691,50 @@
         <v>45</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920068</v>
+        <v>19330051920046</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
         <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920068</v>
+        <v>19330051920049</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -7042,45 +4742,45 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920081</v>
+        <v>18330051920022</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12">
         <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920081</v>
+        <v>19330051920068</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -7088,16 +4788,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920046</v>
+        <v>19330051920074</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -7106,122 +4806,7 @@
         <v>45</v>
       </c>
       <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920057</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920022</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920059</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920074</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920075</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
